--- a/Project1/s06_1.xlsx
+++ b/Project1/s06_1.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>33.09138948416743</v>
+        <v>48.2805657381957</v>
       </c>
       <c r="B2">
-        <v>31.193232772304</v>
+        <v>47.54896168409099</v>
       </c>
       <c r="C2">
-        <v>34.98954619603086</v>
+        <v>49.01216979230042</v>
       </c>
       <c r="D2">
-        <v>30.18840930585184</v>
+        <v>47.16167389213926</v>
       </c>
       <c r="E2">
-        <v>35.99436966248302</v>
+        <v>49.39945758425215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>32.62970306468561</v>
+        <v>48.3419836390545</v>
       </c>
       <c r="B3">
-        <v>30.66978765375964</v>
+        <v>47.3783747659518</v>
       </c>
       <c r="C3">
-        <v>34.58961847561157</v>
+        <v>49.3055925121572</v>
       </c>
       <c r="D3">
-        <v>29.63227110686383</v>
+        <v>46.86827104157354</v>
       </c>
       <c r="E3">
-        <v>35.62713502250738</v>
+        <v>49.81569623653546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>32.59575414959202</v>
+        <v>48.39192764374612</v>
       </c>
       <c r="B4">
-        <v>30.5759675437403</v>
+        <v>47.24613285790478</v>
       </c>
       <c r="C4">
-        <v>34.61554075544374</v>
+        <v>49.53772242958746</v>
       </c>
       <c r="D4">
-        <v>29.50675710073469</v>
+        <v>46.63958573702894</v>
       </c>
       <c r="E4">
-        <v>35.68475119844935</v>
+        <v>50.1442695504633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>32.57273965533609</v>
+        <v>48.4043140765259</v>
       </c>
       <c r="B5">
-        <v>30.49480619914196</v>
+        <v>47.12282386271066</v>
       </c>
       <c r="C5">
-        <v>34.65067311153023</v>
+        <v>49.68580429034114</v>
       </c>
       <c r="D5">
-        <v>29.39481467291009</v>
+        <v>46.44444392135891</v>
       </c>
       <c r="E5">
-        <v>35.7506646377621</v>
+        <v>50.36418423169289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>32.97633055913949</v>
+        <v>48.42344368645861</v>
       </c>
       <c r="B6">
-        <v>30.8418336714482</v>
+        <v>47.01460149722785</v>
       </c>
       <c r="C6">
-        <v>35.11082744683078</v>
+        <v>49.83228587568937</v>
       </c>
       <c r="D6">
-        <v>29.71189927329423</v>
+        <v>46.26880549238842</v>
       </c>
       <c r="E6">
-        <v>36.24076184498475</v>
+        <v>50.57808188052881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>33.34124363234919</v>
+        <v>48.42303556963775</v>
       </c>
       <c r="B7">
-        <v>31.15164401626484</v>
+        <v>46.90683411291126</v>
       </c>
       <c r="C7">
-        <v>35.53084324843354</v>
+        <v>49.93923702636425</v>
       </c>
       <c r="D7">
-        <v>29.9925399957036</v>
+        <v>46.10420554485584</v>
       </c>
       <c r="E7">
-        <v>36.68994726899478</v>
+        <v>50.74186559441967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>33.96433109639738</v>
+        <v>48.4320158436313</v>
       </c>
       <c r="B8">
-        <v>31.7209818159799</v>
+        <v>46.81091362722455</v>
       </c>
       <c r="C8">
-        <v>36.20768037681486</v>
+        <v>50.05311806003805</v>
       </c>
       <c r="D8">
-        <v>30.53342444185817</v>
+        <v>45.95275395137566</v>
       </c>
       <c r="E8">
-        <v>37.39523775093659</v>
+        <v>50.91127773588693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>33.65345171528002</v>
+        <v>48.42894557708822</v>
       </c>
       <c r="B9">
-        <v>31.3576107998108</v>
+        <v>46.71453892136869</v>
       </c>
       <c r="C9">
-        <v>35.94929263074924</v>
+        <v>50.14335223280776</v>
       </c>
       <c r="D9">
-        <v>30.14226603260252</v>
+        <v>45.80698685891668</v>
       </c>
       <c r="E9">
-        <v>37.16463739795752</v>
+        <v>51.05090429525976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>34.04009522352427</v>
+        <v>48.43408498236153</v>
       </c>
       <c r="B10">
-        <v>31.69293629743182</v>
+        <v>46.62769236647591</v>
       </c>
       <c r="C10">
-        <v>36.38725414961672</v>
+        <v>50.24047759824714</v>
       </c>
       <c r="D10">
-        <v>30.4504254163808</v>
+        <v>45.67144587812044</v>
       </c>
       <c r="E10">
-        <v>37.62976503066774</v>
+        <v>51.19672408660261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>33.96929694446074</v>
+        <v>48.43101561772924</v>
       </c>
       <c r="B11">
-        <v>31.57191826358274</v>
+        <v>46.54035014317942</v>
       </c>
       <c r="C11">
-        <v>36.36667562533874</v>
+        <v>50.32168109227905</v>
       </c>
       <c r="D11">
-        <v>30.30282265021081</v>
+        <v>45.53949229821596</v>
       </c>
       <c r="E11">
-        <v>37.63577123871066</v>
+        <v>51.32253893724251</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>33.97582319305533</v>
+        <v>48.43437795471237</v>
       </c>
       <c r="B12">
-        <v>31.52925538187142</v>
+        <v>46.46055995466153</v>
       </c>
       <c r="C12">
-        <v>36.42239100423925</v>
+        <v>50.4081959547632</v>
       </c>
       <c r="D12">
-        <v>30.23412061582214</v>
+        <v>45.41568382164209</v>
       </c>
       <c r="E12">
-        <v>37.71752577028853</v>
+        <v>51.45307208778264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>33.66301582211842</v>
+        <v>48.43187920964927</v>
       </c>
       <c r="B13">
-        <v>31.16822854262661</v>
+        <v>46.38042254933737</v>
       </c>
       <c r="C13">
-        <v>36.15780310161023</v>
+        <v>50.48333586996118</v>
       </c>
       <c r="D13">
-        <v>29.84756793195513</v>
+        <v>45.29444699220471</v>
       </c>
       <c r="E13">
-        <v>37.47846371228171</v>
+        <v>51.56931142709384</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>33.88440546843317</v>
+        <v>48.43423638515031</v>
       </c>
       <c r="B14">
-        <v>31.27398437541527</v>
+        <v>46.3062462559575</v>
       </c>
       <c r="C14">
-        <v>36.49482656145106</v>
+        <v>50.56222651434312</v>
       </c>
       <c r="D14">
-        <v>29.89211092145211</v>
+        <v>45.17975632768789</v>
       </c>
       <c r="E14">
-        <v>37.87670001541422</v>
+        <v>51.68871644261272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>33.42271904895134</v>
+        <v>48.43232413068644</v>
       </c>
       <c r="B15">
-        <v>30.76705193915283</v>
+        <v>46.23192217069244</v>
       </c>
       <c r="C15">
-        <v>36.07838615874987</v>
+        <v>50.63272609068044</v>
       </c>
       <c r="D15">
-        <v>29.36122669072479</v>
+        <v>45.06709973468886</v>
       </c>
       <c r="E15">
-        <v>37.4842114071779</v>
+        <v>51.79754852668402</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>33.38877013385775</v>
+        <v>48.4340281349056</v>
       </c>
       <c r="B16">
-        <v>30.68861508029907</v>
+        <v>46.16231933724488</v>
       </c>
       <c r="C16">
-        <v>36.08892518741644</v>
+        <v>50.70573693256632</v>
       </c>
       <c r="D16">
-        <v>29.25923933702251</v>
+        <v>44.95974934153867</v>
       </c>
       <c r="E16">
-        <v>37.518300930693</v>
+        <v>51.90830692827254</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>33.36575563960183</v>
+        <v>48.43259677095548</v>
       </c>
       <c r="B17">
-        <v>30.62183384252899</v>
+        <v>46.09276358012951</v>
       </c>
       <c r="C17">
-        <v>36.10967743667467</v>
+        <v>50.77242996178145</v>
       </c>
       <c r="D17">
-        <v>29.16928938475255</v>
+        <v>44.85413070907563</v>
       </c>
       <c r="E17">
-        <v>37.56222189445111</v>
+        <v>52.01106283283532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>33.76934654340523</v>
+        <v>48.43384431748967</v>
       </c>
       <c r="B18">
-        <v>30.9823452259236</v>
+        <v>46.02697410604218</v>
       </c>
       <c r="C18">
-        <v>36.55634786088685</v>
+        <v>50.84071452893716</v>
       </c>
       <c r="D18">
-        <v>29.50699584758412</v>
+        <v>44.7528539798947</v>
       </c>
       <c r="E18">
-        <v>38.03169723922634</v>
+        <v>52.11483465508464</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>34.13425961661493</v>
+        <v>48.43278187476857</v>
       </c>
       <c r="B19">
-        <v>31.30483461162942</v>
+        <v>45.96139752058931</v>
       </c>
       <c r="C19">
-        <v>36.96368462160044</v>
+        <v>50.90416622894782</v>
       </c>
       <c r="D19">
-        <v>29.80702748969537</v>
+        <v>44.65312567022972</v>
       </c>
       <c r="E19">
-        <v>38.46149174353449</v>
+        <v>52.21243807930741</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>34.75734708066312</v>
+        <v>48.43369989020493</v>
       </c>
       <c r="B20">
-        <v>31.88612515018993</v>
+        <v>45.8988531781117</v>
       </c>
       <c r="C20">
-        <v>37.6285690111363</v>
+        <v>50.96854660229817</v>
       </c>
       <c r="D20">
-        <v>30.36619207243091</v>
+        <v>44.55698638478992</v>
       </c>
       <c r="E20">
-        <v>39.14850208889533</v>
+        <v>52.31041339561995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>34.44646769954576</v>
+        <v>48.43291384538779</v>
       </c>
       <c r="B21">
-        <v>31.53404862097498</v>
+        <v>45.83665086506169</v>
       </c>
       <c r="C21">
-        <v>37.35888677811654</v>
+        <v>51.0291768257139</v>
       </c>
       <c r="D21">
-        <v>29.99230709036238</v>
+        <v>44.46227226322767</v>
       </c>
       <c r="E21">
-        <v>38.90062830872913</v>
+        <v>52.40355542754792</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>34.83311120779</v>
+        <v>48.43359073340519</v>
       </c>
       <c r="B22">
-        <v>31.88006965636951</v>
+        <v>45.77691532428091</v>
       </c>
       <c r="C22">
-        <v>37.7861527592105</v>
+        <v>51.09026614252947</v>
       </c>
       <c r="D22">
-        <v>30.31682388760334</v>
+        <v>44.37055631443192</v>
       </c>
       <c r="E22">
-        <v>39.34939852797667</v>
+        <v>52.49662515237846</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>34.76231292872647</v>
+        <v>48.43300991955775</v>
       </c>
       <c r="B23">
-        <v>31.76920018116603</v>
+        <v>45.71761538543868</v>
       </c>
       <c r="C23">
-        <v>37.75542567628692</v>
+        <v>51.14840445367683</v>
       </c>
       <c r="D23">
-        <v>30.18474200250842</v>
+        <v>44.28017234846192</v>
       </c>
       <c r="E23">
-        <v>39.33988385494453</v>
+        <v>52.58584749065359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>34.76883917732107</v>
+        <v>48.43350941064923</v>
       </c>
       <c r="B24">
-        <v>31.73618465779502</v>
+        <v>45.66034477926085</v>
       </c>
       <c r="C24">
-        <v>37.80149369684712</v>
+        <v>51.2066740420376</v>
       </c>
       <c r="D24">
-        <v>30.13079432947463</v>
+        <v>44.19232010008743</v>
       </c>
       <c r="E24">
-        <v>39.40688402516751</v>
+        <v>52.67469872121103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>34.45603180638415</v>
+        <v>48.43308045707283</v>
       </c>
       <c r="B25">
-        <v>31.38434449319704</v>
+        <v>45.60357264817496</v>
       </c>
       <c r="C25">
-        <v>37.52771911957127</v>
+        <v>51.26258826597071</v>
       </c>
       <c r="D25">
-        <v>29.75829145205284</v>
+        <v>44.1057216924975</v>
       </c>
       <c r="E25">
-        <v>39.15377216071547</v>
+        <v>52.76043922164816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>34.6774214526989</v>
+        <v>48.43344915773801</v>
       </c>
       <c r="B26">
-        <v>31.51109903340026</v>
+        <v>45.54848965267918</v>
       </c>
       <c r="C26">
-        <v>37.84374387199755</v>
+        <v>51.31840866279684</v>
       </c>
       <c r="D26">
-        <v>29.83494919320003</v>
+        <v>44.02128434221696</v>
       </c>
       <c r="E26">
-        <v>39.51989371219777</v>
+        <v>52.84561397325906</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>34.21573503321708</v>
+        <v>48.43313242076251</v>
       </c>
       <c r="B27">
-        <v>31.01200795711554</v>
+        <v>45.49394323854322</v>
       </c>
       <c r="C27">
-        <v>37.41946210931862</v>
+        <v>51.37232160298181</v>
       </c>
       <c r="D27">
-        <v>29.31605728768176</v>
+        <v>43.93803047107895</v>
       </c>
       <c r="E27">
-        <v>39.1154127787524</v>
+        <v>52.92823437044607</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>34.18178611812349</v>
+        <v>48.43340461142401</v>
       </c>
       <c r="B28">
-        <v>30.94108608675079</v>
+        <v>45.44081975832242</v>
       </c>
       <c r="C28">
-        <v>37.42248614949619</v>
+        <v>51.4259894645256</v>
       </c>
       <c r="D28">
-        <v>29.22556311706995</v>
+        <v>43.856641030111</v>
       </c>
       <c r="E28">
-        <v>39.13800911917703</v>
+        <v>53.01016819273702</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>34.15877162386757</v>
+        <v>48.43317075250753</v>
       </c>
       <c r="B29">
-        <v>30.88151572776608</v>
+        <v>45.38825188811113</v>
       </c>
       <c r="C29">
-        <v>37.43602751996905</v>
+        <v>51.47808961690393</v>
       </c>
       <c r="D29">
-        <v>29.14664125223415</v>
+        <v>43.77636920778978</v>
       </c>
       <c r="E29">
-        <v>39.17090199550098</v>
+        <v>53.08997229722527</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>34.56236252767096</v>
+        <v>48.43337170499283</v>
       </c>
       <c r="B30">
-        <v>31.24895405244114</v>
+        <v>45.3368972091606</v>
       </c>
       <c r="C30">
-        <v>37.87577100290079</v>
+        <v>51.52984620082506</v>
       </c>
       <c r="D30">
-        <v>29.49494155755923</v>
+        <v>43.69772262613665</v>
       </c>
       <c r="E30">
-        <v>39.6297834977827</v>
+        <v>53.16902078384901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>34.92727560088066</v>
+        <v>48.43319904328688</v>
       </c>
       <c r="B31">
-        <v>31.57810477231462</v>
+        <v>45.28610300608659</v>
       </c>
       <c r="C31">
-        <v>38.27644642944671</v>
+        <v>51.58029508048718</v>
       </c>
       <c r="D31">
-        <v>29.80516083113895</v>
+        <v>43.62013099777278</v>
       </c>
       <c r="E31">
-        <v>40.04939037062238</v>
+        <v>53.24626708880099</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>35.55036306492886</v>
+        <v>48.43334740496358</v>
       </c>
       <c r="B32">
-        <v>32.16580773902405</v>
+        <v>45.23635547108719</v>
       </c>
       <c r="C32">
-        <v>38.93491839083367</v>
+        <v>51.63033933883996</v>
       </c>
       <c r="D32">
-        <v>30.37413237643707</v>
+        <v>43.54397017057971</v>
       </c>
       <c r="E32">
-        <v>40.72659375342064</v>
+        <v>53.32272463934744</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>35.23948368381149</v>
+        <v>48.43321992762447</v>
       </c>
       <c r="B33">
-        <v>31.81990998679843</v>
+        <v>45.18716311936634</v>
       </c>
       <c r="C33">
-        <v>38.65905738082455</v>
+        <v>51.6792767358826</v>
       </c>
       <c r="D33">
-        <v>30.00969701831908</v>
+        <v>43.46880444329447</v>
       </c>
       <c r="E33">
-        <v>40.46927034930391</v>
+        <v>53.39763541195448</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>35.62612719205574</v>
+        <v>48.43332946272204</v>
       </c>
       <c r="B34">
-        <v>32.17189011500147</v>
+        <v>45.13888412141697</v>
       </c>
       <c r="C34">
-        <v>39.08036426911001</v>
+        <v>51.72777480402711</v>
       </c>
       <c r="D34">
-        <v>30.34332746154918</v>
+        <v>43.39491010325617</v>
       </c>
       <c r="E34">
-        <v>40.9089269225623</v>
+        <v>53.47174882218791</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>35.55532891299221</v>
+        <v>48.43323534575207</v>
       </c>
       <c r="B35">
-        <v>32.06677286504209</v>
+        <v>45.09114799628769</v>
       </c>
       <c r="C35">
-        <v>39.04388496094233</v>
+        <v>51.77532269521646</v>
       </c>
       <c r="D35">
-        <v>30.22004284580535</v>
+        <v>43.32195382244207</v>
       </c>
       <c r="E35">
-        <v>40.89061498017907</v>
+        <v>53.54451686906208</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35.56185516158681</v>
+        <v>48.43331621550728</v>
       </c>
       <c r="B36">
-        <v>32.03931448547215</v>
+        <v>45.04421753652952</v>
       </c>
       <c r="C36">
-        <v>39.08439583770146</v>
+        <v>51.82241489448504</v>
       </c>
       <c r="D36">
-        <v>30.17459409080174</v>
+        <v>43.25013706810721</v>
       </c>
       <c r="E36">
-        <v>40.94911623237187</v>
+        <v>53.61649536290735</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>35.24904779064989</v>
+        <v>48.4332467287423</v>
       </c>
       <c r="B37">
-        <v>31.69284724370724</v>
+        <v>44.99781301673178</v>
       </c>
       <c r="C37">
-        <v>38.80524833759254</v>
+        <v>51.86868044075283</v>
       </c>
       <c r="D37">
-        <v>29.81030838975244</v>
+        <v>43.17920426346388</v>
       </c>
       <c r="E37">
-        <v>40.68778719154734</v>
+        <v>53.68728919402073</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>35.47043743696464</v>
+        <v>48.4333064349453</v>
       </c>
       <c r="B38">
-        <v>31.83218276706676</v>
+        <v>44.95212634371213</v>
       </c>
       <c r="C38">
-        <v>39.10869210686253</v>
+        <v>51.91448652617847</v>
       </c>
       <c r="D38">
-        <v>29.90620708424043</v>
+        <v>43.10930092010251</v>
       </c>
       <c r="E38">
-        <v>41.03466778968886</v>
+        <v>53.75731194978809</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>35.00875101748282</v>
+        <v>48.43325513275127</v>
       </c>
       <c r="B39">
-        <v>31.33789736223767</v>
+        <v>44.90694584120384</v>
       </c>
       <c r="C39">
-        <v>38.67960467272796</v>
+        <v>51.9595644242987</v>
       </c>
       <c r="D39">
-        <v>29.39466481897682</v>
+        <v>43.04023046203123</v>
       </c>
       <c r="E39">
-        <v>40.62283721598881</v>
+        <v>53.82627980347132</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>34.97480210238923</v>
+        <v>48.433299213907</v>
       </c>
       <c r="B40">
-        <v>31.27163641970373</v>
+        <v>44.8624108569489</v>
       </c>
       <c r="C40">
-        <v>38.67796778507472</v>
+        <v>52.0041875708651</v>
       </c>
       <c r="D40">
-        <v>29.31129892234832</v>
+        <v>42.97209674603977</v>
       </c>
       <c r="E40">
-        <v>40.63830528243014</v>
+        <v>53.89450168177423</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>34.9517876081333</v>
+        <v>48.43326133742254</v>
       </c>
       <c r="B41">
-        <v>31.21658940875854</v>
+        <v>44.81836074083774</v>
       </c>
       <c r="C41">
-        <v>38.68698580750806</v>
+        <v>52.04816193400735</v>
       </c>
       <c r="D41">
-        <v>29.23929492136236</v>
+        <v>42.9047479576369</v>
       </c>
       <c r="E41">
-        <v>40.66428029490425</v>
+        <v>53.96177471720819</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>35.3553785119367</v>
+        <v>48.43329388259431</v>
       </c>
       <c r="B42">
-        <v>31.58842017611649</v>
+        <v>44.77489596298174</v>
       </c>
       <c r="C42">
-        <v>39.12233684775691</v>
+        <v>52.09169180220688</v>
       </c>
       <c r="D42">
-        <v>29.59431288807079</v>
+        <v>42.83825708787133</v>
       </c>
       <c r="E42">
-        <v>41.11644413580261</v>
+        <v>54.0283306773173</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>35.7202915851464</v>
+        <v>48.43326591833384</v>
       </c>
       <c r="B43">
-        <v>31.92183866073121</v>
+        <v>44.731894149413</v>
       </c>
       <c r="C43">
-        <v>39.51874450956159</v>
+        <v>52.13463768725469</v>
       </c>
       <c r="D43">
-        <v>29.91105914457668</v>
+        <v>42.77250629264113</v>
       </c>
       <c r="E43">
-        <v>41.52952402571611</v>
+        <v>54.09402554402656</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>36.3433790491946</v>
+        <v>48.43328994647606</v>
       </c>
       <c r="B44">
-        <v>32.51369053259287</v>
+        <v>44.68942708526396</v>
       </c>
       <c r="C44">
-        <v>40.17306756579632</v>
+        <v>52.17715280768816</v>
       </c>
       <c r="D44">
-        <v>30.48637589274628</v>
+        <v>42.70754580295847</v>
       </c>
       <c r="E44">
-        <v>42.20038220564291</v>
+        <v>54.15903408999365</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>36.03249966807723</v>
+        <v>48.43326930042506</v>
       </c>
       <c r="B45">
-        <v>32.17182826929384</v>
+        <v>44.64740112940022</v>
       </c>
       <c r="C45">
-        <v>39.89317106686062</v>
+        <v>52.2191374714499</v>
       </c>
       <c r="D45">
-        <v>30.12811228235094</v>
+        <v>42.6432835792715</v>
       </c>
       <c r="E45">
-        <v>41.93688705380352</v>
+        <v>54.22325502157862</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>36.41914317632148</v>
+        <v>48.43328704043387</v>
       </c>
       <c r="B46">
-        <v>32.52773556922389</v>
+        <v>44.60586696113742</v>
       </c>
       <c r="C46">
-        <v>40.31055078341907</v>
+        <v>52.26070711973032</v>
       </c>
       <c r="D46">
-        <v>30.4677488164423</v>
+        <v>42.57975315946307</v>
       </c>
       <c r="E46">
-        <v>42.37053753620066</v>
+        <v>54.28682092140466</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>36.34834489725795</v>
+        <v>48.43327179742699</v>
       </c>
       <c r="B47">
-        <v>32.42644195611192</v>
+        <v>44.56475253193091</v>
       </c>
       <c r="C47">
-        <v>40.27024783840398</v>
+        <v>52.30179106292307</v>
       </c>
       <c r="D47">
-        <v>30.35031194862557</v>
+        <v>42.51688213529928</v>
       </c>
       <c r="E47">
-        <v>42.34637784589034</v>
+        <v>54.3496614595547</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>36.35487114585254</v>
+        <v>48.43328489489882</v>
       </c>
       <c r="B48">
-        <v>32.40270816908112</v>
+        <v>44.52409304092873</v>
       </c>
       <c r="C48">
-        <v>40.30703412262397</v>
+        <v>52.34247674886891</v>
       </c>
       <c r="D48">
-        <v>30.31055946635109</v>
+        <v>42.45469187653455</v>
       </c>
       <c r="E48">
-        <v>42.399182825354</v>
+        <v>54.41187791326308</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>36.04206377491563</v>
+        <v>48.43327364096667</v>
       </c>
       <c r="B49">
-        <v>32.05987069695523</v>
+        <v>44.48383269073762</v>
       </c>
       <c r="C49">
-        <v>40.02425685287602</v>
+        <v>52.38271459119571</v>
       </c>
       <c r="D49">
-        <v>29.95182501891962</v>
+        <v>42.39312494181767</v>
       </c>
       <c r="E49">
-        <v>42.13230253091163</v>
+        <v>54.47342234011566</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>36.26345342123038</v>
+        <v>48.43328331084739</v>
       </c>
       <c r="B50">
-        <v>32.207815811296</v>
+        <v>44.44399536855633</v>
       </c>
       <c r="C50">
-        <v>40.31909103116476</v>
+        <v>52.42257125313844</v>
       </c>
       <c r="D50">
-        <v>30.06089094654793</v>
+        <v>42.3321938962145</v>
       </c>
       <c r="E50">
-        <v>42.46601589591283</v>
+        <v>54.53437272548027</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>35.80176700174855</v>
+        <v>48.43327500205441</v>
       </c>
       <c r="B51">
-        <v>31.71685991121306</v>
+        <v>44.40453753203514</v>
       </c>
       <c r="C51">
-        <v>39.88667409228405</v>
+        <v>52.46201247207368</v>
       </c>
       <c r="D51">
-        <v>29.55444071937647</v>
+        <v>42.27185274118013</v>
       </c>
       <c r="E51">
-        <v>42.04909328412063</v>
+        <v>54.59469726292868</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>35.76781808665496</v>
+        <v>48.4332821413401</v>
       </c>
       <c r="B52">
-        <v>31.65384975261299</v>
+        <v>44.36547483915221</v>
       </c>
       <c r="C52">
-        <v>39.88178642069693</v>
+        <v>52.501089443528</v>
       </c>
       <c r="D52">
-        <v>29.47604646774706</v>
+        <v>42.21210772847185</v>
       </c>
       <c r="E52">
-        <v>42.05958970556286</v>
+        <v>54.65445655420835</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>35.74480359239905</v>
+        <v>48.43327600694727</v>
       </c>
       <c r="B53">
-        <v>31.60197786969565</v>
+        <v>44.32677301202913</v>
       </c>
       <c r="C53">
-        <v>39.88762931510244</v>
+        <v>52.53977900186542</v>
       </c>
       <c r="D53">
-        <v>29.40889840603673</v>
+        <v>42.15292163897836</v>
       </c>
       <c r="E53">
-        <v>42.08070877876136</v>
+        <v>54.71363037491619</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>36.14839449620244</v>
+        <v>48.43328127789133</v>
       </c>
       <c r="B54">
-        <v>31.97691100901399</v>
+        <v>44.28844175493426</v>
       </c>
       <c r="C54">
-        <v>40.31987798339088</v>
+        <v>52.57812080084839</v>
       </c>
       <c r="D54">
-        <v>29.76866104121774</v>
+        <v>42.09429624981576</v>
       </c>
       <c r="E54">
-        <v>42.52812795118713</v>
+        <v>54.77226630596689</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>36.51330756941214</v>
+        <v>48.433276748861</v>
       </c>
       <c r="B55">
-        <v>32.31336185558692</v>
+        <v>44.25045381512547</v>
       </c>
       <c r="C55">
-        <v>40.71325328323735</v>
+        <v>52.61609968259652</v>
       </c>
       <c r="D55">
-        <v>30.09004489513755</v>
+        <v>42.0362011069254</v>
       </c>
       <c r="E55">
-        <v>42.93657024368672</v>
+        <v>54.83035239079659</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>37.13639503346033</v>
+        <v>48.43328064040595</v>
       </c>
       <c r="B56">
-        <v>32.90817868205733</v>
+        <v>44.21281461926613</v>
       </c>
       <c r="C56">
-        <v>41.36461138486333</v>
+        <v>52.65374666154576</v>
       </c>
       <c r="D56">
-        <v>30.66989615007629</v>
+        <v>41.97863486429635</v>
       </c>
       <c r="E56">
-        <v>43.60289391684437</v>
+        <v>54.88792641651554</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>36.82551565234297</v>
+        <v>48.43327729661688</v>
       </c>
       <c r="B57">
-        <v>32.5692164347756</v>
+        <v>44.17550226152633</v>
       </c>
       <c r="C57">
-        <v>41.08181486991033</v>
+        <v>52.69105233170743</v>
       </c>
       <c r="D57">
-        <v>30.31606773144483</v>
+        <v>41.92157230759057</v>
       </c>
       <c r="E57">
-        <v>43.3349635732411</v>
+        <v>54.94498228564319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>37.21215916058721</v>
+        <v>48.43328016974965</v>
       </c>
       <c r="B58">
-        <v>32.92796115574926</v>
+        <v>44.13851912260866</v>
       </c>
       <c r="C58">
-        <v>41.49635716542517</v>
+        <v>52.72804121689064</v>
       </c>
       <c r="D58">
-        <v>30.6600437265489</v>
+        <v>41.86500995658442</v>
       </c>
       <c r="E58">
-        <v>43.76427459462553</v>
+        <v>55.00155038291488</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>37.14136088152369</v>
+        <v>48.43327770102577</v>
       </c>
       <c r="B59">
-        <v>32.8294445952479</v>
+        <v>44.10184738444517</v>
       </c>
       <c r="C59">
-        <v>41.45327716779948</v>
+        <v>52.76470801760636</v>
       </c>
       <c r="D59">
-        <v>30.54685399419382</v>
+        <v>41.80892667974223</v>
       </c>
       <c r="E59">
-        <v>43.73586776885356</v>
+        <v>55.0576287223093</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>37.14788713011828</v>
+        <v>48.43327982226349</v>
       </c>
       <c r="B60">
-        <v>32.80842960929343</v>
+        <v>44.06548728432418</v>
       </c>
       <c r="C60">
-        <v>41.48734465094312</v>
+        <v>52.8010723602028</v>
       </c>
       <c r="D60">
-        <v>30.51125955934718</v>
+        <v>41.75331758237817</v>
       </c>
       <c r="E60">
-        <v>43.78451470088938</v>
+        <v>55.1132420621488</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>36.83507975918136</v>
+        <v>48.43327799960139</v>
       </c>
       <c r="B61">
-        <v>32.46825470083105</v>
+        <v>44.02942414581536</v>
       </c>
       <c r="C61">
-        <v>41.20190481753168</v>
+        <v>52.83713185338741</v>
       </c>
       <c r="D61">
-        <v>30.15659715164264</v>
+        <v>41.69816473638237</v>
       </c>
       <c r="E61">
-        <v>43.51356236672008</v>
+        <v>55.1683912628204</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>37.05646940549612</v>
+        <v>48.433279565714</v>
       </c>
       <c r="B62">
-        <v>32.62256640664795</v>
+        <v>43.99365672202103</v>
       </c>
       <c r="C62">
-        <v>41.49037240434429</v>
+        <v>52.87290240940696</v>
       </c>
       <c r="D62">
-        <v>30.27539994069189</v>
+        <v>41.64346235310596</v>
       </c>
       <c r="E62">
-        <v>43.83753887030035</v>
+        <v>55.22309677832203</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>36.59478298601429</v>
+        <v>48.43327822004016</v>
       </c>
       <c r="B63">
-        <v>32.13409186037158</v>
+        <v>43.95817276590722</v>
       </c>
       <c r="C63">
-        <v>41.055474111657</v>
+        <v>52.90838367417309</v>
       </c>
       <c r="D63">
-        <v>29.77274461668667</v>
+        <v>41.5891950376424</v>
       </c>
       <c r="E63">
-        <v>43.41682135534191</v>
+        <v>55.27736140243791</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>36.5608340709207</v>
+        <v>48.43327937630316</v>
       </c>
       <c r="B64">
-        <v>32.07351473376844</v>
+        <v>43.92297002600465</v>
       </c>
       <c r="C64">
-        <v>41.04815340807296</v>
+        <v>52.94358872660167</v>
       </c>
       <c r="D64">
-        <v>29.698071366393</v>
+        <v>41.53535648081458</v>
       </c>
       <c r="E64">
-        <v>43.4235967754484</v>
+        <v>55.33120227179174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>36.53781957666478</v>
+        <v>48.43327838279039</v>
       </c>
       <c r="B65">
-        <v>32.02402911312159</v>
+        <v>43.88803814727035</v>
       </c>
       <c r="C65">
-        <v>41.05161004020798</v>
+        <v>52.97851861831043</v>
       </c>
       <c r="D65">
-        <v>29.63457277789434</v>
+        <v>41.48193330841882</v>
       </c>
       <c r="E65">
-        <v>43.44106637543523</v>
+        <v>55.38462345716196</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>36.94141048046817</v>
+        <v>48.4332792364609</v>
       </c>
       <c r="B66">
-        <v>32.40130322799424</v>
+        <v>43.85337422091794</v>
       </c>
       <c r="C66">
-        <v>41.4815177329421</v>
+        <v>53.01318425200385</v>
       </c>
       <c r="D66">
-        <v>29.99791562623141</v>
+        <v>41.42891895598793</v>
       </c>
       <c r="E66">
-        <v>43.88490533470493</v>
+        <v>55.43763951693386</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>37.30632355367787</v>
+        <v>48.43327850294911</v>
       </c>
       <c r="B67">
-        <v>32.74005118125425</v>
+        <v>43.81896937727852</v>
       </c>
       <c r="C67">
-        <v>41.8725959261015</v>
+        <v>53.0475876286197</v>
       </c>
       <c r="D67">
-        <v>30.32281260166452</v>
+        <v>41.37630167657723</v>
       </c>
       <c r="E67">
-        <v>44.28983450569122</v>
+        <v>55.49025532932099</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>37.92941101772607</v>
+        <v>48.43327913321517</v>
       </c>
       <c r="B68">
-        <v>33.33712260187584</v>
+        <v>43.78482030015368</v>
       </c>
       <c r="C68">
-        <v>42.5216994335763</v>
+        <v>53.08173796627666</v>
       </c>
       <c r="D68">
-        <v>30.90611196080358</v>
+        <v>41.32407483635496</v>
       </c>
       <c r="E68">
-        <v>44.95271007464856</v>
+        <v>55.54248343007537</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>37.6185316366087</v>
+        <v>48.43327859166244</v>
       </c>
       <c r="B69">
-        <v>33.00037373442031</v>
+        <v>43.75091929656198</v>
       </c>
       <c r="C69">
-        <v>42.23668953879709</v>
+        <v>53.1156378867629</v>
       </c>
       <c r="D69">
-        <v>30.5556686145017</v>
+        <v>41.2722280121851</v>
       </c>
       <c r="E69">
-        <v>44.6813946587157</v>
+        <v>55.59432917113978</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>38.00517514485295</v>
+        <v>48.43327905698871</v>
       </c>
       <c r="B70">
-        <v>33.36129186415585</v>
+        <v>43.7172628213569</v>
       </c>
       <c r="C70">
-        <v>42.64905842555005</v>
+        <v>53.14929529262051</v>
       </c>
       <c r="D70">
-        <v>30.90296855146773</v>
+        <v>41.22075462890098</v>
       </c>
       <c r="E70">
-        <v>45.10738173823817</v>
+        <v>55.64580348507643</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>37.93437686578942</v>
+        <v>48.43327865715962</v>
       </c>
       <c r="B71">
-        <v>33.2649099326234</v>
+        <v>43.68384412297357</v>
       </c>
       <c r="C71">
-        <v>42.60384379895545</v>
+        <v>53.18271319134567</v>
       </c>
       <c r="D71">
-        <v>30.79304345239929</v>
+        <v>41.1696453518703</v>
       </c>
       <c r="E71">
-        <v>45.07571027917956</v>
+        <v>55.69691196244894</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>37.94090311438401</v>
+        <v>48.43327900071061</v>
       </c>
       <c r="B72">
-        <v>33.24599193789475</v>
+        <v>43.65065955348886</v>
       </c>
       <c r="C72">
-        <v>42.63581429087328</v>
+        <v>53.21589844793236</v>
       </c>
       <c r="D72">
-        <v>30.76065608887852</v>
+        <v>41.11889375056887</v>
       </c>
       <c r="E72">
-        <v>45.12115013988951</v>
+        <v>55.74766425085236</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>37.6280957434471</v>
+        <v>48.43327870551627</v>
       </c>
       <c r="B73">
-        <v>32.907877478333</v>
+        <v>43.61770312260422</v>
       </c>
       <c r="C73">
-        <v>42.3483140085612</v>
+        <v>53.24885428842831</v>
       </c>
       <c r="D73">
-        <v>30.40914486583624</v>
+        <v>41.06849139527861</v>
       </c>
       <c r="E73">
-        <v>44.84704662105796</v>
+        <v>55.79806601575392</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>37.84948538976185</v>
+        <v>48.43327895916042</v>
       </c>
       <c r="B74">
-        <v>33.06714337111918</v>
+        <v>43.58497116763291</v>
       </c>
       <c r="C74">
-        <v>42.63182740840453</v>
+        <v>53.28158675068793</v>
       </c>
       <c r="D74">
-        <v>30.5355244300177</v>
+        <v>41.01843205573464</v>
       </c>
       <c r="E74">
-        <v>45.16344634950601</v>
+        <v>55.8481258625862</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>37.38779897028002</v>
+        <v>48.43327874121805</v>
       </c>
       <c r="B75">
-        <v>32.58061011415338</v>
+        <v>43.55245832085358</v>
       </c>
       <c r="C75">
-        <v>42.19498782640667</v>
+        <v>53.31409916158251</v>
       </c>
       <c r="D75">
-        <v>30.03583805180802</v>
+        <v>40.96870806289596</v>
       </c>
       <c r="E75">
-        <v>44.73975988875203</v>
+        <v>55.89784941954014</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>37.35385005518644</v>
+        <v>48.43327892848386</v>
       </c>
       <c r="B76">
-        <v>32.52194212832555</v>
+        <v>43.52016096508727</v>
       </c>
       <c r="C76">
-        <v>42.18575798204732</v>
+        <v>53.34639689188045</v>
       </c>
       <c r="D76">
-        <v>29.96408458036806</v>
+        <v>40.91931342061764</v>
       </c>
       <c r="E76">
-        <v>44.74361553000481</v>
+        <v>55.94724443635008</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>37.33083556093052</v>
+        <v>48.43327876757672</v>
       </c>
       <c r="B77">
-        <v>32.47433437912751</v>
+        <v>43.48807424775705</v>
       </c>
       <c r="C77">
-        <v>42.18733674273352</v>
+        <v>53.37848328739638</v>
       </c>
       <c r="D77">
-        <v>29.90345794841507</v>
+        <v>40.87024110633958</v>
       </c>
       <c r="E77">
-        <v>44.75821317344597</v>
+        <v>55.99631642881386</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>37.73442646473391</v>
+        <v>48.43327890583532</v>
       </c>
       <c r="B78">
-        <v>32.85345594197443</v>
+        <v>43.45619463738679</v>
       </c>
       <c r="C78">
-        <v>42.61539698749338</v>
+        <v>53.41036317428384</v>
       </c>
       <c r="D78">
-        <v>30.26962622460867</v>
+        <v>40.8214853764547</v>
       </c>
       <c r="E78">
-        <v>45.19922670485914</v>
+        <v>56.04507243521594</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>38.09933953794361</v>
+        <v>48.43327878703736</v>
       </c>
       <c r="B79">
-        <v>33.19402173384164</v>
+        <v>43.4245177127371</v>
       </c>
       <c r="C79">
-        <v>43.00465734204558</v>
+        <v>53.44203986133762</v>
       </c>
       <c r="D79">
-        <v>30.59730334427913</v>
+        <v>40.77303976370716</v>
       </c>
       <c r="E79">
-        <v>45.60137573160808</v>
+        <v>56.09351781036756</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>38.7224270019918</v>
+        <v>48.43327888911386</v>
       </c>
       <c r="B80">
-        <v>33.7928821675844</v>
+        <v>43.39304005378309</v>
       </c>
       <c r="C80">
-        <v>43.65197183639921</v>
+        <v>53.47351772444464</v>
       </c>
       <c r="D80">
-        <v>31.18333876287895</v>
+        <v>40.72489878461887</v>
       </c>
       <c r="E80">
-        <v>46.26151524110466</v>
+        <v>56.14165899360886</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>38.41154762087444</v>
+        <v>48.43327880140518</v>
       </c>
       <c r="B81">
-        <v>33.45789424284872</v>
+        <v>43.36175760473105</v>
       </c>
       <c r="C81">
-        <v>43.36520099890016</v>
+        <v>53.50479999807931</v>
       </c>
       <c r="D81">
-        <v>30.83558854606365</v>
+        <v>40.67705645377868</v>
       </c>
       <c r="E81">
-        <v>45.98750669568522</v>
+        <v>56.18950114903168</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>38.79819112911869</v>
+        <v>48.4332788767684</v>
       </c>
       <c r="B82">
-        <v>33.82054597253927</v>
+        <v>43.33066707243488</v>
       </c>
       <c r="C82">
-        <v>43.7758362856981</v>
+        <v>53.53589068110191</v>
       </c>
       <c r="D82">
-        <v>31.18553979536605</v>
+        <v>40.629507547963</v>
       </c>
       <c r="E82">
-        <v>46.41084246287132</v>
+        <v>56.23705020557379</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>38.72739285005516</v>
+        <v>48.43327881201296</v>
       </c>
       <c r="B83">
-        <v>33.72587099965688</v>
+        <v>43.29976471428945</v>
       </c>
       <c r="C83">
-        <v>43.72891470045344</v>
+        <v>53.56679290973647</v>
       </c>
       <c r="D83">
-        <v>31.07822526427409</v>
+        <v>40.58224650385059</v>
       </c>
       <c r="E83">
-        <v>46.37656043583623</v>
+        <v>56.28431112017532</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>38.73391909864975</v>
+        <v>48.43327886765372</v>
       </c>
       <c r="B84">
-        <v>33.70863399875697</v>
+        <v>43.26904737215024</v>
       </c>
       <c r="C84">
-        <v>43.75920419854253</v>
+        <v>53.5975103631572</v>
       </c>
       <c r="D84">
-        <v>31.04840875896235</v>
+        <v>40.53526835356803</v>
       </c>
       <c r="E84">
-        <v>46.41942943833715</v>
+        <v>56.33128938173941</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>38.42111172771283</v>
+        <v>48.43327881984469</v>
       </c>
       <c r="B85">
-        <v>33.37217522084357</v>
+        <v>43.23851157476578</v>
       </c>
       <c r="C85">
-        <v>43.4700482345821</v>
+        <v>53.62804606492361</v>
       </c>
       <c r="D85">
-        <v>30.69942968248979</v>
+        <v>40.48856790679116</v>
       </c>
       <c r="E85">
-        <v>46.14279377293588</v>
+        <v>56.37798973289823</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>38.64250137402759</v>
+        <v>48.43327886092435</v>
       </c>
       <c r="B86">
-        <v>33.53543817064389</v>
+        <v>43.20815430200916</v>
       </c>
       <c r="C86">
-        <v>43.74956457741129</v>
+        <v>53.65840341983954</v>
       </c>
       <c r="D86">
-        <v>30.83192221785593</v>
+        <v>40.44214044281667</v>
       </c>
       <c r="E86">
-        <v>46.45308053019924</v>
+        <v>56.42441727903203</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>38.18081495454576</v>
+        <v>48.43327882562688</v>
       </c>
       <c r="B87">
-        <v>33.05047733616735</v>
+        <v>43.17797232015374</v>
       </c>
       <c r="C87">
-        <v>43.31115257292417</v>
+        <v>53.68858533110001</v>
       </c>
       <c r="D87">
-        <v>30.33464065232043</v>
+        <v>40.39598110357285</v>
       </c>
       <c r="E87">
-        <v>46.02698925677109</v>
+        <v>56.47057654768091</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>38.14686603945217</v>
+        <v>48.43327885595604</v>
       </c>
       <c r="B88">
-        <v>32.99335911758415</v>
+        <v>43.14796274659543</v>
       </c>
       <c r="C88">
-        <v>43.30037296132019</v>
+        <v>53.71859496531665</v>
       </c>
       <c r="D88">
-        <v>30.26525734534796</v>
+        <v>40.35008540532493</v>
       </c>
       <c r="E88">
-        <v>46.02847473355639</v>
+        <v>56.51647230658715</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>38.12385154519625</v>
+        <v>48.43327882989588</v>
       </c>
       <c r="B89">
-        <v>32.94727901996931</v>
+        <v>43.11812255748897</v>
       </c>
       <c r="C89">
-        <v>43.3004240704232</v>
+        <v>53.74843510230279</v>
       </c>
       <c r="D89">
-        <v>30.20696705487703</v>
+        <v>40.30444878809202</v>
       </c>
       <c r="E89">
-        <v>46.04073603551548</v>
+        <v>56.56210887169973</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>38.52744244899964</v>
+        <v>48.43327885228793</v>
       </c>
       <c r="B90">
-        <v>33.32790664047525</v>
+        <v>43.08844900490097</v>
       </c>
       <c r="C90">
-        <v>43.72697825752404</v>
+        <v>53.7781086996749</v>
       </c>
       <c r="D90">
-        <v>30.57543864749557</v>
+        <v>40.25906699377292</v>
       </c>
       <c r="E90">
-        <v>46.47944625050372</v>
+        <v>56.60749071080295</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>38.89235552220934</v>
+        <v>48.43327883304768</v>
       </c>
       <c r="B91">
-        <v>33.66995740072144</v>
+        <v>43.05893925203332</v>
       </c>
       <c r="C91">
-        <v>44.11475364369724</v>
+        <v>53.80761841406204</v>
       </c>
       <c r="D91">
-        <v>30.90538683032046</v>
+        <v>40.21393573154714</v>
       </c>
       <c r="E91">
-        <v>46.87932421409823</v>
+        <v>56.65262193454822</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>39.51544298625754</v>
+        <v>48.43327884957976</v>
       </c>
       <c r="B92">
-        <v>34.27028220182841</v>
+        <v>43.02959068124326</v>
       </c>
       <c r="C92">
-        <v>44.76060377068667</v>
+        <v>53.83696701791627</v>
       </c>
       <c r="D92">
-        <v>31.49366180554143</v>
+        <v>40.16905095710003</v>
       </c>
       <c r="E92">
-        <v>47.53722416697366</v>
+        <v>56.6975067420595</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>39.20456360514017</v>
+        <v>48.43327883537466</v>
       </c>
       <c r="B93">
-        <v>33.93673851600651</v>
+        <v>43.00040062371161</v>
       </c>
       <c r="C93">
-        <v>44.47238869427384</v>
+        <v>53.86615704703771</v>
       </c>
       <c r="D93">
-        <v>31.14812036153886</v>
+        <v>40.12440862403288</v>
       </c>
       <c r="E93">
-        <v>47.26100684874149</v>
+        <v>56.74214904671643</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>39.59120711338442</v>
+        <v>48.43327884758032</v>
       </c>
       <c r="B94">
-        <v>34.30081481366798</v>
+        <v>42.97136658676986</v>
       </c>
       <c r="C94">
-        <v>44.88159941310087</v>
+        <v>53.89519110839078</v>
       </c>
       <c r="D94">
-        <v>31.50025029954298</v>
+        <v>40.08000488988588</v>
       </c>
       <c r="E94">
-        <v>47.68216392722587</v>
+        <v>56.78655280527475</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>39.5204088343209</v>
+        <v>48.43327883709267</v>
       </c>
       <c r="B95">
-        <v>34.20754518087637</v>
+        <v>42.9424860534822</v>
       </c>
       <c r="C95">
-        <v>44.83327248776543</v>
+        <v>53.92407162070315</v>
       </c>
       <c r="D95">
-        <v>31.3950850506477</v>
+        <v>40.03583593133202</v>
       </c>
       <c r="E95">
-        <v>47.6457326179941</v>
+        <v>56.83072174285332</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>39.52693508291549</v>
+        <v>48.43327884610413</v>
       </c>
       <c r="B96">
-        <v>34.19169472138679</v>
+        <v>42.91375665032001</v>
       </c>
       <c r="C96">
-        <v>44.86217544444418</v>
+        <v>53.95280104188825</v>
       </c>
       <c r="D96">
-        <v>31.36738907743189</v>
+        <v>39.99189809603722</v>
       </c>
       <c r="E96">
-        <v>47.68648108839908</v>
+        <v>56.87465959617104</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>39.21412771197858</v>
+        <v>48.43327883836108</v>
       </c>
       <c r="B97">
-        <v>33.85660410209334</v>
+        <v>42.88517599850171</v>
       </c>
       <c r="C97">
-        <v>44.57165132186381</v>
+        <v>53.98138167822046</v>
       </c>
       <c r="D97">
-        <v>31.02050241900348</v>
+        <v>39.94818776516046</v>
       </c>
       <c r="E97">
-        <v>47.40775300495368</v>
+        <v>56.9183699115617</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>39.43551735829333</v>
+        <v>48.43327884501425</v>
       </c>
       <c r="B98">
-        <v>34.02318016042434</v>
+        <v>42.85674183757864</v>
       </c>
       <c r="C98">
-        <v>44.84785455616231</v>
+        <v>54.00981585244986</v>
       </c>
       <c r="D98">
-        <v>31.15806191661413</v>
+        <v>39.90470146515369</v>
       </c>
       <c r="E98">
-        <v>47.71297279997252</v>
+        <v>56.96185622487481</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>38.9738309388115</v>
+        <v>48.43327883929755</v>
       </c>
       <c r="B99">
-        <v>33.53952661731558</v>
+        <v>42.82845191509541</v>
       </c>
       <c r="C99">
-        <v>44.40813526030741</v>
+        <v>54.03810576349969</v>
       </c>
       <c r="D99">
-        <v>30.66277968069364</v>
+        <v>39.86143576535275</v>
       </c>
       <c r="E99">
-        <v>47.28488219692935</v>
+        <v>57.00512191324235</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>38.93988202371791</v>
+        <v>48.4332788442096</v>
       </c>
       <c r="B100">
-        <v>33.48369901965526</v>
+        <v>42.80030407759871</v>
       </c>
       <c r="C100">
-        <v>44.39606502778055</v>
+        <v>54.06625361082048</v>
       </c>
       <c r="D100">
-        <v>30.5953702080908</v>
+        <v>39.81838736016028</v>
       </c>
       <c r="E100">
-        <v>47.28439383934501</v>
+        <v>57.04817032825891</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>38.91686752946199</v>
+        <v>48.43327883998895</v>
       </c>
       <c r="B101">
-        <v>33.43889322420872</v>
+        <v>42.77229618867332</v>
       </c>
       <c r="C101">
-        <v>44.39484183471526</v>
+        <v>54.09426149130459</v>
       </c>
       <c r="D101">
-        <v>30.53902879460808</v>
+        <v>39.77555299267222</v>
       </c>
       <c r="E101">
-        <v>47.29470626431591</v>
+        <v>57.09100468730568</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>39.32045843326538</v>
+        <v>48.43327884361552</v>
       </c>
       <c r="B102">
-        <v>33.82077916950755</v>
+        <v>42.74442619588689</v>
       </c>
       <c r="C102">
-        <v>44.82013769702321</v>
+        <v>54.12213149134415</v>
       </c>
       <c r="D102">
-        <v>30.90942482892777</v>
+        <v>39.73292951497557</v>
       </c>
       <c r="E102">
-        <v>47.73149203760299</v>
+        <v>57.13362817225547</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>39.68537150647509</v>
+        <v>48.43327884049941</v>
       </c>
       <c r="B103">
-        <v>34.16407260862498</v>
+        <v>42.7166920698417</v>
       </c>
       <c r="C103">
-        <v>45.2066704043252</v>
+        <v>54.14986561115713</v>
       </c>
       <c r="D103">
-        <v>31.24127352508154</v>
+        <v>39.69051383109776</v>
       </c>
       <c r="E103">
-        <v>48.12946948786863</v>
+        <v>57.17604384990106</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>40.30845897052328</v>
+        <v>48.43327884317691</v>
       </c>
       <c r="B104">
-        <v>34.76562476457829</v>
+        <v>42.6890918533499</v>
       </c>
       <c r="C104">
-        <v>45.85129317646826</v>
+        <v>54.17746583300393</v>
       </c>
       <c r="D104">
-        <v>31.83142557755775</v>
+        <v>39.64830294114196</v>
       </c>
       <c r="E104">
-        <v>48.78549236348881</v>
+        <v>57.21825474521187</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>39.99757958940591</v>
+        <v>48.43327884087628</v>
       </c>
       <c r="B105">
-        <v>34.43329342226941</v>
+        <v>42.66162361605393</v>
       </c>
       <c r="C105">
-        <v>45.56186575654241</v>
+        <v>54.20493406569864</v>
       </c>
       <c r="D105">
-        <v>31.48773825295723</v>
+        <v>39.60629389858326</v>
       </c>
       <c r="E105">
-        <v>48.50742092585459</v>
+        <v>57.26026378316931</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>40.38422309765016</v>
+        <v>48.43327884285308</v>
       </c>
       <c r="B106">
-        <v>34.79856735593285</v>
+        <v>42.63428549048578</v>
       </c>
       <c r="C106">
-        <v>45.96987883936747</v>
+        <v>54.23227219522039</v>
       </c>
       <c r="D106">
-        <v>31.8416998171663</v>
+        <v>39.56448384247622</v>
       </c>
       <c r="E106">
-        <v>48.92674637813401</v>
+        <v>57.30207384322995</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>40.31342481858663</v>
+        <v>48.43327884115453</v>
       </c>
       <c r="B107">
-        <v>34.7064809469064</v>
+        <v>42.60707563822462</v>
       </c>
       <c r="C107">
-        <v>45.92036869026686</v>
+        <v>54.25948204408443</v>
       </c>
       <c r="D107">
-        <v>31.73834415286186</v>
+        <v>39.52286996540874</v>
       </c>
       <c r="E107">
-        <v>48.8885054843114</v>
+        <v>57.34368771690031</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>40.31995106718122</v>
+        <v>48.433278842614</v>
       </c>
       <c r="B108">
-        <v>34.69179958597842</v>
+        <v>42.57999227627964</v>
       </c>
       <c r="C108">
-        <v>45.94810254838403</v>
+        <v>54.28656540894836</v>
       </c>
       <c r="D108">
-        <v>31.71243616160222</v>
+        <v>39.48144953691431</v>
       </c>
       <c r="E108">
-        <v>48.92746597276022</v>
+        <v>57.38510814831369</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>40.00714369624431</v>
+        <v>48.43327884135996</v>
       </c>
       <c r="B109">
-        <v>34.35786421912882</v>
+        <v>42.55303365180093</v>
       </c>
       <c r="C109">
-        <v>45.65642317335981</v>
+        <v>54.31352403091898</v>
       </c>
       <c r="D109">
-        <v>31.36731630932027</v>
+        <v>39.44021987934857</v>
       </c>
       <c r="E109">
-        <v>48.64697108316836</v>
+        <v>57.42633780337135</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>40.22853334255906</v>
+        <v>48.43327884243749</v>
       </c>
       <c r="B110">
-        <v>34.52724460022046</v>
+        <v>42.52619806132783</v>
       </c>
       <c r="C110">
-        <v>45.92982208489766</v>
+        <v>54.34035962354714</v>
       </c>
       <c r="D110">
-        <v>31.50916464848803</v>
+        <v>39.39917838482253</v>
       </c>
       <c r="E110">
-        <v>48.94790203663009</v>
+        <v>57.46737930005245</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>39.76684692307723</v>
+        <v>48.43327884151162</v>
       </c>
       <c r="B111">
-        <v>34.04470022461609</v>
+        <v>42.49948383184433</v>
       </c>
       <c r="C111">
-        <v>45.48899362153837</v>
+        <v>54.36707385117892</v>
       </c>
       <c r="D111">
-        <v>31.01557873788122</v>
+        <v>39.35832249697378</v>
       </c>
       <c r="E111">
-        <v>48.51811510827324</v>
+        <v>57.50823518604947</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>39.73289800798364</v>
+        <v>48.43327884230717</v>
       </c>
       <c r="B112">
-        <v>33.9899691076835</v>
+        <v>42.47288933477081</v>
       </c>
       <c r="C112">
-        <v>45.47582690828379</v>
+        <v>54.39366834984352</v>
       </c>
       <c r="D112">
-        <v>30.94984618784152</v>
+        <v>39.31764972313294</v>
       </c>
       <c r="E112">
-        <v>48.51594982812577</v>
+        <v>57.5489079614814</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>39.70988351372773</v>
+        <v>48.4332788416236</v>
       </c>
       <c r="B113">
-        <v>33.94624734642019</v>
+        <v>42.44641297172868</v>
       </c>
       <c r="C113">
-        <v>45.47351968103526</v>
+        <v>54.42014471151853</v>
       </c>
       <c r="D113">
-        <v>30.89516266157478</v>
+        <v>39.27715762048516</v>
       </c>
       <c r="E113">
-        <v>48.52460436588067</v>
+        <v>57.58940006276205</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>40.11347441753112</v>
+        <v>48.43327884221095</v>
       </c>
       <c r="B114">
-        <v>34.32920511326386</v>
+        <v>42.4200531846628</v>
       </c>
       <c r="C114">
-        <v>45.89774372179837</v>
+        <v>54.44650449975911</v>
       </c>
       <c r="D114">
-        <v>31.26719790549183</v>
+        <v>39.23684380473497</v>
       </c>
       <c r="E114">
-        <v>48.9597509295704</v>
+        <v>57.62971387968693</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>40.47838749074082</v>
+        <v>48.43327884170628</v>
       </c>
       <c r="B115">
-        <v>34.6735583890806</v>
+        <v>42.39380844510453</v>
       </c>
       <c r="C115">
-        <v>46.28321659240104</v>
+        <v>54.47274923830803</v>
       </c>
       <c r="D115">
-        <v>31.60066748200344</v>
+        <v>39.19670593954216</v>
       </c>
       <c r="E115">
-        <v>49.35610749947821</v>
+        <v>57.6698517438704</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>41.10147495478901</v>
+        <v>48.43327884213992</v>
       </c>
       <c r="B116">
-        <v>35.27615861877135</v>
+        <v>42.36767726144906</v>
       </c>
       <c r="C116">
-        <v>46.92679129080668</v>
+        <v>54.49888042283078</v>
       </c>
       <c r="D116">
-        <v>32.19242242493972</v>
+        <v>39.15674174261924</v>
       </c>
       <c r="E116">
-        <v>50.0105274846383</v>
+        <v>57.7098159416606</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>40.79059557367165</v>
+        <v>48.43327884176732</v>
       </c>
       <c r="B117">
-        <v>34.94486380340822</v>
+        <v>42.34165817082003</v>
       </c>
       <c r="C117">
-        <v>46.63632734393507</v>
+        <v>54.52489951271461</v>
       </c>
       <c r="D117">
-        <v>31.85032033150532</v>
+        <v>39.11694897761338</v>
       </c>
       <c r="E117">
-        <v>49.73087081583797</v>
+        <v>57.74960870592126</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>41.17723908191589</v>
+        <v>48.43327884208747</v>
       </c>
       <c r="B118">
-        <v>35.3111629278705</v>
+        <v>42.31574974425791</v>
       </c>
       <c r="C118">
-        <v>47.04331523596129</v>
+        <v>54.55080793991704</v>
       </c>
       <c r="D118">
-        <v>32.2058497897399</v>
+        <v>39.07732545832604</v>
       </c>
       <c r="E118">
-        <v>50.14862837409189</v>
+        <v>57.78923222584891</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>41.10644080285237</v>
+        <v>48.43327884181238</v>
       </c>
       <c r="B119">
-        <v>35.22009057879562</v>
+        <v>42.28995058052179</v>
       </c>
       <c r="C119">
-        <v>46.99279102690912</v>
+        <v>54.57660710310297</v>
       </c>
       <c r="D119">
-        <v>32.1040449962991</v>
+        <v>39.03786904242606</v>
       </c>
       <c r="E119">
-        <v>50.10883660940564</v>
+        <v>57.8286886411987</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>41.11296705144696</v>
+        <v>48.43327884204876</v>
       </c>
       <c r="B120">
-        <v>35.20641234709977</v>
+        <v>42.26425930974671</v>
       </c>
       <c r="C120">
-        <v>47.01952175579415</v>
+        <v>54.60229837435081</v>
       </c>
       <c r="D120">
-        <v>32.07967115881031</v>
+        <v>38.99857763429985</v>
       </c>
       <c r="E120">
-        <v>50.14626294408361</v>
+        <v>57.86798004979767</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>40.80015968051005</v>
+        <v>48.43327884184566</v>
       </c>
       <c r="B121">
-        <v>34.87346937388539</v>
+        <v>42.23867458869008</v>
       </c>
       <c r="C121">
-        <v>46.72684998713471</v>
+        <v>54.62788309500123</v>
       </c>
       <c r="D121">
-        <v>31.73606904162056</v>
+        <v>38.95944918013859</v>
       </c>
       <c r="E121">
-        <v>49.86425031939955</v>
+        <v>57.90710850355272</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>41.0215493268248</v>
+        <v>48.43327884202017</v>
       </c>
       <c r="B122">
-        <v>35.04526346488702</v>
+        <v>42.21319510326936</v>
       </c>
       <c r="C122">
-        <v>46.99783518876257</v>
+        <v>54.65336258077099</v>
       </c>
       <c r="D122">
-        <v>31.88160883154217</v>
+        <v>38.92048166979389</v>
       </c>
       <c r="E122">
-        <v>50.16148982210743</v>
+        <v>57.94607601424646</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>40.55986290734297</v>
+        <v>48.43327884187022</v>
       </c>
       <c r="B123">
-        <v>34.5636756004962</v>
+        <v>42.18781956488814</v>
       </c>
       <c r="C123">
-        <v>46.55605021418973</v>
+        <v>54.67873811885229</v>
       </c>
       <c r="D123">
-        <v>31.38948577859928</v>
+        <v>38.88167313289929</v>
       </c>
       <c r="E123">
-        <v>49.73024003608666</v>
+        <v>57.98488455084114</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>40.52591399224938</v>
+        <v>48.43327884199906</v>
       </c>
       <c r="B124">
-        <v>34.50989107557236</v>
+        <v>42.16254671215714</v>
       </c>
       <c r="C124">
-        <v>46.5419369089264</v>
+        <v>54.70401097184098</v>
       </c>
       <c r="D124">
-        <v>31.32520091610885</v>
+        <v>38.84302164000701</v>
       </c>
       <c r="E124">
-        <v>49.72662706838991</v>
+        <v>58.02353604399111</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>40.50289949799346</v>
+        <v>48.43327884188835</v>
       </c>
       <c r="B125">
-        <v>34.46710615749745</v>
+        <v>42.1373753080292</v>
       </c>
       <c r="C125">
-        <v>46.53869283848947</v>
+        <v>54.72918237574751</v>
       </c>
       <c r="D125">
-        <v>31.2719501678573</v>
+        <v>38.80452529949105</v>
       </c>
       <c r="E125">
-        <v>49.73384882812962</v>
+        <v>58.06203238428566</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>40.90649040179685</v>
+        <v>48.43327884198348</v>
       </c>
       <c r="B126">
-        <v>34.85099118502133</v>
+        <v>42.11230414092673</v>
       </c>
       <c r="C126">
-        <v>46.96198961857238</v>
+        <v>54.75425354304023</v>
       </c>
       <c r="D126">
-        <v>31.64540353460791</v>
+        <v>38.76618225816763</v>
       </c>
       <c r="E126">
-        <v>50.1675772689858</v>
+        <v>58.10037542579933</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>41.27140347500656</v>
+        <v>48.43327884190175</v>
       </c>
       <c r="B127">
-        <v>35.1962623013743</v>
+        <v>42.08733202248452</v>
       </c>
       <c r="C127">
-        <v>47.34654464863881</v>
+        <v>54.77922566131897</v>
       </c>
       <c r="D127">
-        <v>31.98027682708611</v>
+        <v>38.72799069879159</v>
       </c>
       <c r="E127">
-        <v>50.56253012292701</v>
+        <v>58.1385669850119</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>41.89449093905475</v>
+        <v>48.43327884197198</v>
       </c>
       <c r="B128">
-        <v>35.7997711099933</v>
+        <v>42.06245778824795</v>
       </c>
       <c r="C128">
-        <v>47.9892107681162</v>
+        <v>54.80409989569601</v>
       </c>
       <c r="D128">
-        <v>32.5734213215819</v>
+        <v>38.6899488403092</v>
       </c>
       <c r="E128">
-        <v>51.2155605565276</v>
+        <v>58.17660884363475</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>41.58361155793738</v>
+        <v>48.43327884191163</v>
       </c>
       <c r="B129">
-        <v>35.46937576677365</v>
+        <v>42.03768029587406</v>
       </c>
       <c r="C129">
-        <v>47.69784734910112</v>
+        <v>54.8288773879492</v>
       </c>
       <c r="D129">
-        <v>32.23269485208157</v>
+        <v>38.65205493580724</v>
       </c>
       <c r="E129">
-        <v>50.9345282637932</v>
+        <v>58.21450274801602</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>41.97025506618163</v>
+        <v>48.43327884196349</v>
       </c>
       <c r="B130">
-        <v>35.83656540781607</v>
+        <v>42.01299842552125</v>
       </c>
       <c r="C130">
-        <v>48.10394472454718</v>
+        <v>54.85355925840572</v>
       </c>
       <c r="D130">
-        <v>32.58958623789804</v>
+        <v>38.61430727250721</v>
       </c>
       <c r="E130">
-        <v>51.35092389446522</v>
+        <v>58.25225041141976</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>41.89945678711811</v>
+        <v>48.43327884191893</v>
       </c>
       <c r="B131">
-        <v>35.7463747674849</v>
+        <v>41.98841107839732</v>
       </c>
       <c r="C131">
-        <v>48.05253880675132</v>
+        <v>54.87814660544055</v>
       </c>
       <c r="D131">
-        <v>32.48912990161569</v>
+        <v>38.57670417006196</v>
       </c>
       <c r="E131">
-        <v>51.30978367262052</v>
+        <v>58.28985351377591</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>41.90598303571269</v>
+        <v>48.43327884195722</v>
       </c>
       <c r="B132">
-        <v>35.73356958103175</v>
+        <v>41.96391717692924</v>
       </c>
       <c r="C132">
-        <v>48.07839649039364</v>
+        <v>54.90264050698519</v>
       </c>
       <c r="D132">
-        <v>32.46609127160397</v>
+        <v>38.53924398037082</v>
       </c>
       <c r="E132">
-        <v>51.34587479982142</v>
+        <v>58.32731370354362</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>41.59317566477579</v>
+        <v>48.43327884192433</v>
       </c>
       <c r="B133">
-        <v>35.40149113060261</v>
+        <v>41.93951566357546</v>
       </c>
       <c r="C133">
-        <v>47.78486019894896</v>
+        <v>54.92704202027319</v>
       </c>
       <c r="D133">
-        <v>32.12381132791739</v>
+        <v>38.50192508614511</v>
       </c>
       <c r="E133">
-        <v>51.06254000163418</v>
+        <v>58.36463259770355</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>41.81456531109053</v>
+        <v>48.43327884195259</v>
       </c>
       <c r="B134">
-        <v>35.57539132059485</v>
+        <v>41.91520550084037</v>
       </c>
       <c r="C134">
-        <v>48.05373930158622</v>
+        <v>54.95135218306481</v>
       </c>
       <c r="D134">
-        <v>32.27257211828911</v>
+        <v>38.46474590060213</v>
       </c>
       <c r="E134">
-        <v>51.35655850389196</v>
+        <v>58.40181178330305</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>41.3528788916087</v>
+        <v>48.43327884192831</v>
       </c>
       <c r="B135">
-        <v>35.0946393948436</v>
+        <v>41.89098567028912</v>
       </c>
       <c r="C135">
-        <v>47.61111838837381</v>
+        <v>54.97557201356749</v>
       </c>
       <c r="D135">
-        <v>31.78172752317101</v>
+        <v>38.42770486624042</v>
       </c>
       <c r="E135">
-        <v>50.9240302600464</v>
+        <v>58.43885281761619</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>41.31892997651512</v>
+        <v>48.43327884194917</v>
       </c>
       <c r="B136">
-        <v>35.04168287973267</v>
+        <v>41.86685517245419</v>
       </c>
       <c r="C136">
-        <v>47.59617707329756</v>
+        <v>54.99970251144416</v>
       </c>
       <c r="D136">
-        <v>31.71870899241143</v>
+        <v>38.39080045445459</v>
       </c>
       <c r="E136">
-        <v>50.9191509606188</v>
+        <v>58.47575722944376</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>41.2959154822592</v>
+        <v>48.43327884193125</v>
       </c>
       <c r="B137">
-        <v>34.99971816727164</v>
+        <v>41.84281302600651</v>
       </c>
       <c r="C137">
-        <v>47.59211279724676</v>
+        <v>55.02374465785599</v>
       </c>
       <c r="D137">
-        <v>31.66671264039826</v>
+        <v>38.35403116447576</v>
       </c>
       <c r="E137">
-        <v>50.92511832412014</v>
+        <v>58.51252651938673</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>41.69950638606259</v>
+        <v>48.43327884194665</v>
       </c>
       <c r="B138">
-        <v>35.38441571811098</v>
+        <v>41.81885826758858</v>
       </c>
       <c r="C138">
-        <v>48.0145970540142</v>
+        <v>55.04769941630472</v>
       </c>
       <c r="D138">
-        <v>32.04140865432572</v>
+        <v>38.3173955229376</v>
       </c>
       <c r="E138">
-        <v>51.35760411779945</v>
+        <v>58.5491621609557</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>42.06441945927229</v>
+        <v>48.43327884193342</v>
       </c>
       <c r="B139">
-        <v>35.73049179473093</v>
+        <v>41.79498995110718</v>
       </c>
       <c r="C139">
-        <v>48.39834712381366</v>
+        <v>55.07156773275965</v>
       </c>
       <c r="D139">
-        <v>32.37751302729625</v>
+        <v>38.28089208294821</v>
       </c>
       <c r="E139">
-        <v>51.75132589124834</v>
+        <v>58.58566560091862</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>42.68750692332048</v>
+        <v>48.43327884194479</v>
       </c>
       <c r="B140">
-        <v>36.33479811724136</v>
+        <v>41.77120714751821</v>
       </c>
       <c r="C140">
-        <v>49.04021572939961</v>
+        <v>55.09535053637137</v>
       </c>
       <c r="D140">
-        <v>32.97187721403572</v>
+        <v>38.24451942362906</v>
       </c>
       <c r="E140">
-        <v>52.40313663260525</v>
+        <v>58.62203826026052</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>42.37662754220312</v>
+        <v>48.43327884193501</v>
       </c>
       <c r="B141">
-        <v>36.00519295570471</v>
+        <v>41.74750894421488</v>
       </c>
       <c r="C141">
-        <v>48.74806212870153</v>
+        <v>55.11904873965515</v>
       </c>
       <c r="D141">
-        <v>32.63235922313396</v>
+        <v>38.20827614929271</v>
       </c>
       <c r="E141">
-        <v>52.12089586127227</v>
+        <v>58.65828153457731</v>
       </c>
     </row>
   </sheetData>
